--- a/Term-2-Winter/Tracker.xlsx
+++ b/Term-2-Winter/Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balaj\OneDrive\sources\macs-dall\Term-2-Winter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balaj\OneDrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="11_F25DC773A252ABDACC1048AB311A5A465ADE58ED" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E358464C-A6B1-4736-97BA-9C0909DB3FF2}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{20E5C98D-45E6-43D1-98BD-BE8E0FF387B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0B6CC664-FBEC-45BE-AAB7-E90DCF8D1567}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>Assignment/Project</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Assignment 1-Docker</t>
   </si>
   <si>
-    <t>Advanced Cloud Computing</t>
-  </si>
-  <si>
     <t>Assignment 2-Secure Networks</t>
   </si>
   <si>
@@ -124,6 +121,12 @@
   </si>
   <si>
     <t>6.6%</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Cloud Computing</t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -244,7 +247,6 @@
     <xf numFmtId="16" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,32 +536,32 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
     </row>
@@ -591,7 +593,9 @@
       <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -606,11 +610,13 @@
       <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>25</v>
@@ -619,9 +625,11 @@
         <v>45324</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -652,7 +660,9 @@
       <c r="D7" s="4">
         <v>0.2</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -729,16 +739,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="C13" s="19">
         <v>45360</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -774,10 +784,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="19">
         <v>45373</v>
@@ -819,16 +829,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="19">
         <v>45380</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="8"/>
     </row>
@@ -864,10 +874,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="19">
         <v>45391</v>
@@ -893,32 +903,34 @@
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="19">
+        <v>45393</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C25" s="18">
         <v>45398</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D25" s="15">
         <v>0.35</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
